--- a/Docs/cn/IPC SDK内存占用统计与说明.xlsx
+++ b/Docs/cn/IPC SDK内存占用统计与说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>规格设定</t>
   </si>
@@ -31,7 +31,7 @@
     <t>音频</t>
   </si>
   <si>
-    <t>对应8K 16bit</t>
+    <t>对应8K 16bit PCM格式数据类型</t>
   </si>
   <si>
     <t>事件图片大小上限</t>
@@ -43,19 +43,19 @@
     <t>最大单帧大小</t>
   </si>
   <si>
-    <t>黄色背景的为可设置项</t>
+    <t>黄色背景的为可设置项，变更后自动计算内存消耗总量</t>
   </si>
   <si>
     <t>应用层功能</t>
   </si>
   <si>
-    <t>缓存时长/路数规格</t>
-  </si>
-  <si>
-    <t>DDR占用 MB</t>
-  </si>
-  <si>
-    <t>任务/线程数</t>
+    <t>时长/路数</t>
+  </si>
+  <si>
+    <t>DDR占用(MB)</t>
+  </si>
+  <si>
+    <t>占用类型</t>
   </si>
   <si>
     <t>说明</t>
@@ -64,27 +64,55 @@
     <t>*IOT</t>
   </si>
   <si>
-    <t>*ringbuffer缓存时长</t>
-  </si>
-  <si>
-    <t>该总量计算包含了（高清+标清）*时长
-减少缓存时长N会影响网络抗抖，并且云存储上传速率要求提高(N-0.5秒内必须完成上传)
-调用tuya_ipc_ring_buffer_init接口时即申请内存，通过max_buffer_seconds控制B10格的时长
+    <t>动态</t>
+  </si>
+  <si>
+    <t>基础涂鸦云服务接入功能，实际占用依据系统而定，主要为线程栈空间开销</t>
+  </si>
+  <si>
+    <t>*ringbuffer E_CHANNEL_VIDEO_MAIN</t>
+  </si>
+  <si>
+    <t>固定</t>
+  </si>
+  <si>
+    <t>调用tuya_ipc_ring_buffer_init接口时即申请内存
+占用内存 = 入参bitrate * max_buffer_seconds
+高清通道ringbuffer复用于多路高清P2P预览、云存储、本地存储
+当系统内存不足时可以考虑减少缓存时长，但会影响网络抗抖能力，并且对上行带宽要求变高：云存储10秒分片必须在&lt;=(N-0.5)秒完成上传（预留了0.5秒的防覆盖安全距离）
 内存长期占用</t>
   </si>
   <si>
-    <t>云存储分片时长</t>
-  </si>
-  <si>
-    <t>（高清+音频）*缓存时长+加密临时空间+事件图片
+    <t>ringbuffer E_CHANNEL_VIDEO_SUB</t>
+  </si>
+  <si>
+    <t>标清通道复用于多路标清P2P预览
+当系统内存不足时，可以优先考虑缩减该时长，会影响标清预览时的网络抗抖能力</t>
+  </si>
+  <si>
+    <t>ringbuffer E_CHANNEL_AUDIO</t>
+  </si>
+  <si>
+    <t>音频通道复用于多路P2P音频传输、云存储、本地存储
+基于更优秀的音视频同步机制，建议与高清通道保持相同缓存秒数</t>
+  </si>
+  <si>
+    <t>云存储</t>
+  </si>
+  <si>
+    <t>B13为云存储分片时长
+内存占用=（高清+音频）*分片时长+加密临时空间+事件图片
+其中，分片时长最少10秒。当GOP&gt;5秒时，分片时长=GOP时长*2
 调用tuya_ipc_cloud_storage_init接口时即申请内存
 内存长期占用</t>
   </si>
   <si>
-    <t>本地存储写文件间隔</t>
-  </si>
-  <si>
-    <t>（高清+音频）*写文件频次时长，仅统计应用层大块内存。可能涉及系统内存开销
+    <t>本地存储</t>
+  </si>
+  <si>
+    <t>B14为本地存储写文件的缓存秒数，暂未开放接口变更
+占用内存= （高清+音频）*写文件频次时长
+仅统计应用层大块内存。可能涉及系统内存开销
 调用tuya_ipc_ss_init接口，并且sd卡挂载成功后申请内存
 内存长期占用</t>
   </si>
@@ -93,7 +121,8 @@
   </si>
   <si>
     <t>包括封装、TLS加密等开销
-tuya_ipc_tranfser_init初始化后，当预览/回放建立时申请内存</t>
+tuya_ipc_tranfser_init初始化后，通过max_client_num属性设定最大路数
+当预览/回放建立时申请内存</t>
   </si>
   <si>
     <t>*MD事件</t>
@@ -113,7 +142,7 @@
     <t>*云端推流</t>
   </si>
   <si>
-    <t>收发/加密一帧数据，支持chromecast与其他第三方推流服务
+    <t>收发/加密一帧数据，支持chromecast与其他第三方推流服务，提供功能可扩展性
 调用tuya_ipc_tranfser_init接口后申请内存
 内存长期占用</t>
   </si>
@@ -129,6 +158,12 @@
   </si>
   <si>
     <t>合计(自动计算)</t>
+  </si>
+  <si>
+    <t>代表所有业务同时触发的峰值内存占用</t>
+  </si>
+  <si>
+    <t>固定类型内存</t>
   </si>
 </sst>
 </file>
@@ -136,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,57 +193,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,35 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,6 +245,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -270,32 +261,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,19 +363,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,18 +501,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,7 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,121 +525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +562,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,50 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,16 +652,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,19 +681,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,116 +702,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,8 +820,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -795,8 +844,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1120,18 +1169,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="81.25" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
@@ -1169,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1180,16 +1229,17 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -1205,9 +1255,10 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -1230,193 +1281,249 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="57" spans="1:5">
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="85.5" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10">
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <f>(B2+B3+B4)*B10/8/1024</f>
-        <v>2.652587890625</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="1:5">
+        <f>B2*B10/8/1024</f>
+        <v>1.875</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10">
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <f>(B2+B4)*(B11+1)/8/1024+B6/1024+B5/1024</f>
-        <v>2.6697998046875</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <f>B3*B11/8/1024</f>
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="42.75" spans="1:5">
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B4*B12/8/1024</f>
+        <v>0.152587890625</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="71.25" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <f>(B2+B4)*(B13+1)/8/1024+B6/1024+B5/1024</f>
+        <v>2.6209716796875</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="71.25" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
-        <f>B2*(B12+1)/8/1024+B3*B12/8/1024</f>
-        <v>1.6875</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <f>0.8*B13</f>
-        <v>2.4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
       <c r="C14" s="2">
-        <f>B5*2/1024</f>
-        <v>0.29296875</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
+        <f>B2*B14/8/1024+B4*B14/8/1024</f>
+        <v>1.216552734375</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="42.75" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <f>0.8*B15</f>
+        <v>2.4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <f>B5*2/1024*B15</f>
-        <v>0.29296875</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="42.75" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
       <c r="C16" s="2">
-        <f>B6/1024*2*B16*B16</f>
-        <v>0.5859375</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:5">
+        <f>B5*2/1024</f>
+        <v>0.1953125</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="42.75" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6">
+        <v>33</v>
+      </c>
+      <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="2">
         <f>B5*2/1024*B17</f>
-        <v>0.29296875</v>
-      </c>
-      <c r="D17" s="2">
+        <v>0.1953125</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C18" s="2">
+        <f>B6/1024*2*B18*B18</f>
+        <v>0.5859375</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9">
-        <f>SUM(C9:C18)</f>
-        <v>11.6747314453125</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f>B5*2/1024*B19</f>
+        <v>0.1953125</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13">
+        <f>SUM(C9:C20)</f>
+        <v>10.8619873046875</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="11"/>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <f>C10+C11+C12+C13+C14+C17+C18</f>
+        <v>7.2713623046875</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
